--- a/excel_graphs/aggragation_graphs.xlsx
+++ b/excel_graphs/aggragation_graphs.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pes\excel_graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\data_projects\pes_report\pes-nippes-data-cleaning\excel_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B3AFB-1641-4AC3-A572-6287D54244F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6BBFC4-57D3-4327-BA56-045CF2E2A950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78BCE896-C492-43A2-92C9-E2CCB3CF9A5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{78BCE896-C492-43A2-92C9-E2CCB3CF9A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Famers" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Sex</t>
   </si>
@@ -40,13 +53,88 @@
   </si>
   <si>
     <t>N=110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male </t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female </t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>% total</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students </t>
+  </si>
+  <si>
+    <t>Farmers</t>
+  </si>
+  <si>
+    <t>Fishers</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Endline</t>
+  </si>
+  <si>
+    <t>Baseline (%)</t>
+  </si>
+  <si>
+    <t>Endline (%)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +163,34 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF6B6463"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6B6463"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -96,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,27 +235,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,53 +650,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3303F6-9CBE-44BB-8991-69621B528A03}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="2">
         <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
+        <v>65</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>92</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="N8" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6">
+        <v>89</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="L9" s="6">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="N9" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10">
+        <v>42</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="N10" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="19">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="19">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -506,5 +963,182 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F3D1C-77B3-41DC-9B06-8D63CADD65DE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="C2" s="24">
+        <v>157</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="E2" s="26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="C3" s="24">
+        <v>111</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="C4" s="24">
+        <v>44</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="E4" s="26">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB505DB5-09D4-4015-8BB5-E0C47F6EAD15}">
+  <dimension ref="D1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="D2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="F3" s="6">
+        <v>157</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>110</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>44</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="10">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>